--- a/data/output/KPIs.xlsx
+++ b/data/output/KPIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Vie Professionnelle\CDI Dec 2024 - Data Scientist\Entretiens\Quod_Financial\Quod_THA\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2953F3C-AFB9-411F-A0E9-19E788689D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23458B0B-34F1-4EF6-BA9E-FDA2AA80E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,15 +35,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>year</t>
-  </si>
-  <si>
-    <t>ElasticNet_RMSE</t>
-  </si>
-  <si>
-    <t>ElasticNet_MAE</t>
   </si>
   <si>
     <t>LinearRegression_RMSE</t>
@@ -448,13 +442,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,81 +476,63 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>143.57376690870879</v>
+        <v>134.24998310284499</v>
       </c>
       <c r="C2">
-        <v>66.588904743737203</v>
+        <v>51.329629572858387</v>
       </c>
       <c r="D2">
-        <v>127.21689189525109</v>
+        <v>119.8997629346171</v>
       </c>
       <c r="E2">
-        <v>53.267339823691373</v>
+        <v>44.78514538374494</v>
       </c>
       <c r="F2">
-        <v>128.23942394314901</v>
+        <v>141.12586497742009</v>
       </c>
       <c r="G2">
-        <v>52.507794131359141</v>
+        <v>59.119560241699219</v>
       </c>
       <c r="H2">
-        <v>140.59141265560999</v>
+        <v>123.81113520674769</v>
       </c>
       <c r="I2">
-        <v>62.656402587890618</v>
-      </c>
-      <c r="J2">
-        <v>127.17770468276331</v>
-      </c>
-      <c r="K2">
-        <v>53.880185311888461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47.757499277212077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>119.22669120869431</v>
+        <v>92.955342821163683</v>
       </c>
       <c r="C3">
-        <v>55.628448522028563</v>
+        <v>37.784241109037481</v>
       </c>
       <c r="D3">
-        <v>103.4479088087202</v>
+        <v>86.510504220475127</v>
       </c>
       <c r="E3">
-        <v>46.729419300642263</v>
+        <v>36.954690738843652</v>
       </c>
       <c r="F3">
-        <v>107.9753719823976</v>
+        <v>95.615456018823124</v>
       </c>
       <c r="G3">
-        <v>43.374602986055081</v>
+        <v>45.886444091796882</v>
       </c>
       <c r="H3">
-        <v>107.2463440883301</v>
+        <v>104.5887233729202</v>
       </c>
       <c r="I3">
-        <v>51.103912353515618</v>
-      </c>
-      <c r="J3">
-        <v>105.6342750824934</v>
-      </c>
-      <c r="K3">
-        <v>46.721882858928083</v>
+        <v>39.368198078916627</v>
       </c>
     </row>
   </sheetData>
@@ -566,18 +542,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -603,14 +579,8 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2018</v>
       </c>
@@ -618,325 +588,271 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>154.75173902527399</v>
+        <v>168.834122713863</v>
       </c>
       <c r="D2">
-        <v>78.778362361814203</v>
+        <v>69.661397316866413</v>
       </c>
       <c r="E2">
-        <v>134.53268680439899</v>
+        <v>116.77907989198469</v>
       </c>
       <c r="F2">
-        <v>66.076306333438112</v>
+        <v>43.398557446757181</v>
       </c>
       <c r="G2">
-        <v>130.00490471116811</v>
+        <v>141.07046111784001</v>
       </c>
       <c r="H2">
-        <v>52.572629058842487</v>
+        <v>61.638721466064453</v>
       </c>
       <c r="I2">
-        <v>146.24456453574609</v>
+        <v>134.7116021775355</v>
       </c>
       <c r="J2">
-        <v>65.684356689453125</v>
-      </c>
-      <c r="K2">
-        <v>125.136407239817</v>
-      </c>
-      <c r="L2">
-        <v>57.610810686822603</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>52.780796301467753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>163.23832599365929</v>
+        <v>172.7200812883253</v>
       </c>
       <c r="D3">
-        <v>76.115152495946504</v>
+        <v>68.44250546342461</v>
       </c>
       <c r="E3">
-        <v>136.1600576342264</v>
+        <v>125.0942049314217</v>
       </c>
       <c r="F3">
-        <v>61.353418336677379</v>
+        <v>43.888126072899688</v>
       </c>
       <c r="G3">
-        <v>127.742821340587</v>
+        <v>149.10496643514259</v>
       </c>
       <c r="H3">
-        <v>51.082322286677027</v>
+        <v>60.664497375488281</v>
       </c>
       <c r="I3">
-        <v>149.3437009573052</v>
+        <v>157.97820600295529</v>
       </c>
       <c r="J3">
-        <v>63.920391082763672</v>
-      </c>
-      <c r="K3">
-        <v>125.83251678033641</v>
-      </c>
-      <c r="L3">
-        <v>52.90789381254838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>55.267682706637601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>131.7918773700591</v>
+        <v>134.957689741526</v>
       </c>
       <c r="D4">
-        <v>68.080075434431834</v>
+        <v>53.993013818531601</v>
       </c>
       <c r="E4">
-        <v>101.9329202887466</v>
+        <v>99.773798678142498</v>
       </c>
       <c r="F4">
-        <v>53.187530346995118</v>
+        <v>38.399928344684547</v>
       </c>
       <c r="G4">
-        <v>100.1441940867786</v>
+        <v>127.9093344973794</v>
       </c>
       <c r="H4">
-        <v>56.238995280766531</v>
+        <v>55.686546325683587</v>
       </c>
       <c r="I4">
-        <v>107.1330218700098</v>
+        <v>100.1956308571839</v>
       </c>
       <c r="J4">
-        <v>62.761722564697273</v>
-      </c>
-      <c r="K4">
-        <v>105.9086119077687</v>
-      </c>
-      <c r="L4">
-        <v>54.980507502579052</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>41.735675240122752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>144.50684433805631</v>
+        <v>116.65306351209369</v>
       </c>
       <c r="D5">
-        <v>63.575090532008844</v>
+        <v>43.986049493833647</v>
       </c>
       <c r="E5">
-        <v>123.55797156512671</v>
+        <v>121.32889579958869</v>
       </c>
       <c r="F5">
-        <v>49.601516367125697</v>
+        <v>45.457709114072507</v>
       </c>
       <c r="G5">
-        <v>126.46139679088</v>
+        <v>150.44976191199169</v>
       </c>
       <c r="H5">
-        <v>54.64816570102731</v>
+        <v>57.133026123046882</v>
       </c>
       <c r="I5">
-        <v>133.90435748370919</v>
+        <v>132.5672017287163</v>
       </c>
       <c r="J5">
-        <v>61.840801239013672</v>
-      </c>
-      <c r="K5">
-        <v>124.57888897536159</v>
-      </c>
-      <c r="L5">
-        <v>57.246674970763763</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>46.812553174544178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>172.6195367411768</v>
+        <v>140.50011304110069</v>
       </c>
       <c r="D6">
-        <v>69.324522482057176</v>
+        <v>48.349312956382761</v>
       </c>
       <c r="E6">
-        <v>161.46302624524699</v>
+        <v>142.73093143918339</v>
       </c>
       <c r="F6">
-        <v>54.392185382389677</v>
+        <v>49.277946043579639</v>
       </c>
       <c r="G6">
-        <v>162.64222298601081</v>
+        <v>164.62004666997581</v>
       </c>
       <c r="H6">
-        <v>56.533278034960126</v>
+        <v>61.796527862548828</v>
       </c>
       <c r="I6">
-        <v>163.39691178614731</v>
+        <v>133.99062664380031</v>
       </c>
       <c r="J6">
-        <v>64.898689270019531</v>
-      </c>
-      <c r="K6">
-        <v>161.4630624359323</v>
-      </c>
-      <c r="L6">
-        <v>59.749207308484799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>50.39104607459663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>165.19496611011331</v>
+        <v>140.14361617327771</v>
       </c>
       <c r="D7">
-        <v>73.799189163350462</v>
+        <v>55.061972332419209</v>
       </c>
       <c r="E7">
-        <v>139.65585455652069</v>
+        <v>129.49480694464481</v>
       </c>
       <c r="F7">
-        <v>56.488698766463358</v>
+        <v>51.169948708424933</v>
       </c>
       <c r="G7">
-        <v>138.31381654633239</v>
+        <v>157.4979228533665</v>
       </c>
       <c r="H7">
-        <v>57.784657387964657</v>
+        <v>67.495330810546875</v>
       </c>
       <c r="I7">
-        <v>155.98521314134231</v>
+        <v>131.4712048623677</v>
       </c>
       <c r="J7">
-        <v>70.235267639160156</v>
-      </c>
-      <c r="K7">
-        <v>146.7321033835498</v>
-      </c>
-      <c r="L7">
-        <v>62.320678957261592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>58.241823245358603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>120.85587569132601</v>
+        <v>110.2250614610814</v>
       </c>
       <c r="D8">
-        <v>60.937873079292601</v>
+        <v>43.193534310631229</v>
       </c>
       <c r="E8">
-        <v>126.24145892411249</v>
+        <v>130.3794382881195</v>
       </c>
       <c r="F8">
-        <v>48.31376731907249</v>
+        <v>50.623957181705848</v>
       </c>
       <c r="G8">
-        <v>129.53010065729191</v>
+        <v>139.73201192371769</v>
       </c>
       <c r="H8">
-        <v>52.689530412767397</v>
+        <v>62.379341125488281</v>
       </c>
       <c r="I8">
-        <v>140.88195274546351</v>
+        <v>107.08099012351499</v>
       </c>
       <c r="J8">
-        <v>63.375629425048828</v>
-      </c>
-      <c r="K8">
-        <v>123.2706871112718</v>
-      </c>
-      <c r="L8">
-        <v>48.995418760194177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45.729107277281123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>113.2858726075914</v>
+        <v>111.33118248117449</v>
       </c>
       <c r="D9">
-        <v>56.351937663080733</v>
+        <v>40.977768063420328</v>
       </c>
       <c r="E9">
-        <v>100.9794759674905</v>
+        <v>113.2736931804295</v>
       </c>
       <c r="F9">
-        <v>43.390666561699888</v>
+        <v>45.128688484514292</v>
       </c>
       <c r="G9">
-        <v>119.7395543697581</v>
+        <v>117.94378874992741</v>
       </c>
       <c r="H9">
-        <v>48.214744434664667</v>
+        <v>56.653671264648438</v>
       </c>
       <c r="I9">
-        <v>134.42421337179181</v>
+        <v>115.11012190909599</v>
       </c>
       <c r="J9">
-        <v>59.807781219482422</v>
-      </c>
-      <c r="K9">
-        <v>116.4842013192885</v>
-      </c>
-      <c r="L9">
-        <v>46.771349771341512</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>43.375807566271519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>107.20462737579351</v>
+        <v>85.378345473606927</v>
       </c>
       <c r="D10">
-        <v>51.225415268910297</v>
+        <v>37.063074005465722</v>
       </c>
       <c r="E10">
-        <v>106.8372436822148</v>
+        <v>91.155424961119806</v>
       </c>
       <c r="F10">
-        <v>45.839004703725877</v>
+        <v>35.699821332010863</v>
       </c>
       <c r="G10">
-        <v>109.5317368169423</v>
+        <v>111.0996658059218</v>
       </c>
       <c r="H10">
-        <v>42.2271347429892</v>
+        <v>48.376396179199219</v>
       </c>
       <c r="I10">
-        <v>125.9827152082777</v>
+        <v>82.218092483053184</v>
       </c>
       <c r="J10">
-        <v>50.917644500732422</v>
-      </c>
-      <c r="K10">
-        <v>104.1959164667181</v>
-      </c>
-      <c r="L10">
-        <v>43.628041860182947</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+        <v>34.971906106179603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2019</v>
       </c>
@@ -944,322 +860,268 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>105.1413720863638</v>
+        <v>109.0592885365683</v>
       </c>
       <c r="D11">
-        <v>62.918945041360629</v>
+        <v>48.661387918916297</v>
       </c>
       <c r="E11">
-        <v>121.6283246763375</v>
+        <v>113.3987582590314</v>
       </c>
       <c r="F11">
-        <v>69.294745694563872</v>
+        <v>51.345545862494923</v>
       </c>
       <c r="G11">
-        <v>145.12364477912871</v>
+        <v>113.8360895034501</v>
       </c>
       <c r="H11">
-        <v>60.259750268085888</v>
+        <v>54.424423217773438</v>
       </c>
       <c r="I11">
-        <v>108.0880717285677</v>
+        <v>126.75755036480091</v>
       </c>
       <c r="J11">
-        <v>59.709678649902337</v>
-      </c>
-      <c r="K11">
-        <v>149.99938601788159</v>
-      </c>
-      <c r="L11">
-        <v>65.776146460394202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>44.94756896043328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>126.34968695021171</v>
+        <v>89.251525029843421</v>
       </c>
       <c r="D12">
-        <v>58.622496755845212</v>
+        <v>36.26822283983504</v>
       </c>
       <c r="E12">
-        <v>102.32089493007361</v>
+        <v>86.990493777104874</v>
       </c>
       <c r="F12">
-        <v>49.704049590388507</v>
+        <v>41.813846756378247</v>
       </c>
       <c r="G12">
-        <v>89.57058232412686</v>
+        <v>85.923743217096288</v>
       </c>
       <c r="H12">
-        <v>37.46922553764302</v>
+        <v>45.846683502197273</v>
       </c>
       <c r="I12">
-        <v>104.4894301622178</v>
+        <v>82.316786656566237</v>
       </c>
       <c r="J12">
-        <v>48.984157562255859</v>
-      </c>
-      <c r="K12">
-        <v>88.087358867614697</v>
-      </c>
-      <c r="L12">
-        <v>37.081788849900917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+        <v>32.478271305994603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>117.7704099477958</v>
+        <v>80.803912988232725</v>
       </c>
       <c r="D13">
-        <v>58.352132895422891</v>
+        <v>37.6471478184137</v>
       </c>
       <c r="E13">
-        <v>99.448890326882918</v>
+        <v>82.192956014500226</v>
       </c>
       <c r="F13">
-        <v>52.207790224945008</v>
+        <v>39.422122973329358</v>
       </c>
       <c r="G13">
-        <v>101.0476314772136</v>
+        <v>84.289224340029079</v>
       </c>
       <c r="H13">
-        <v>46.325971303748751</v>
+        <v>47.094108581542969</v>
       </c>
       <c r="I13">
-        <v>95.324005453112392</v>
+        <v>88.336968350080681</v>
       </c>
       <c r="J13">
-        <v>53.058002471923828</v>
-      </c>
-      <c r="K13">
-        <v>108.8939226160162</v>
-      </c>
-      <c r="L13">
-        <v>60.614736904564083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38.230009606731457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>139.31746872604921</v>
+        <v>94.850685792998291</v>
       </c>
       <c r="D14">
-        <v>59.361136451198853</v>
+        <v>38.804543595134056</v>
       </c>
       <c r="E14">
-        <v>109.51395244216791</v>
+        <v>86.012028010243696</v>
       </c>
       <c r="F14">
-        <v>48.030675891011477</v>
+        <v>35.297304491099979</v>
       </c>
       <c r="G14">
-        <v>95.037398120865618</v>
+        <v>93.980825213510968</v>
       </c>
       <c r="H14">
-        <v>40.656618342718907</v>
+        <v>46.84039306640625</v>
       </c>
       <c r="I14">
-        <v>110.4368235335819</v>
+        <v>96.036304968006675</v>
       </c>
       <c r="J14">
-        <v>52.183467864990227</v>
-      </c>
-      <c r="K14">
-        <v>101.4685319735753</v>
-      </c>
-      <c r="L14">
-        <v>49.875568475473948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>40.152289010793709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>133.43996766894719</v>
+        <v>91.515761922096061</v>
       </c>
       <c r="D15">
-        <v>57.928742323361099</v>
+        <v>38.061631033994153</v>
       </c>
       <c r="E15">
-        <v>99.567881795771527</v>
+        <v>87.915741885633764</v>
       </c>
       <c r="F15">
-        <v>47.505694294122883</v>
+        <v>36.605174812485252</v>
       </c>
       <c r="G15">
-        <v>87.582962272998103</v>
+        <v>99.255037655526579</v>
       </c>
       <c r="H15">
-        <v>44.166718385146027</v>
+        <v>48.332683563232422</v>
       </c>
       <c r="I15">
-        <v>110.6977515015549</v>
+        <v>96.384726269917394</v>
       </c>
       <c r="J15">
-        <v>53.499103546142578</v>
-      </c>
-      <c r="K15">
-        <v>98.836361833484375</v>
-      </c>
-      <c r="L15">
-        <v>52.7824566100564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+        <v>43.411567724744891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>123.9653903599974</v>
+        <v>81.03937348073049</v>
       </c>
       <c r="D16">
-        <v>53.384500558438553</v>
+        <v>32.92044369958068</v>
       </c>
       <c r="E16">
-        <v>88.024223516011048</v>
+        <v>74.26752119547686</v>
       </c>
       <c r="F16">
-        <v>38.01781992084311</v>
+        <v>31.881284361687111</v>
       </c>
       <c r="G16">
-        <v>92.299664162621738</v>
+        <v>84.20369473503672</v>
       </c>
       <c r="H16">
-        <v>37.69743253710115</v>
+        <v>44.70782470703125</v>
       </c>
       <c r="I16">
-        <v>124.6896420555352</v>
+        <v>115.39775183937959</v>
       </c>
       <c r="J16">
-        <v>49.026824951171882</v>
-      </c>
-      <c r="K16">
-        <v>79.669747232217716</v>
-      </c>
-      <c r="L16">
-        <v>28.703532198167458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>39.621931426431431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>102.56417813886731</v>
+        <v>99.382960785833035</v>
       </c>
       <c r="D17">
-        <v>47.758798156399827</v>
+        <v>34.97656126508889</v>
       </c>
       <c r="E17">
-        <v>97.109800326659681</v>
+        <v>78.22891397089812</v>
       </c>
       <c r="F17">
-        <v>36.59586333040086</v>
+        <v>31.129857627828809</v>
       </c>
       <c r="G17">
-        <v>112.0255247315698</v>
+        <v>105.63810939358009</v>
       </c>
       <c r="H17">
-        <v>40.863782916165277</v>
+        <v>41.821212768554688</v>
       </c>
       <c r="I17">
-        <v>100.6632400165274</v>
+        <v>112.8860738529026</v>
       </c>
       <c r="J17">
-        <v>46.724586486816413</v>
-      </c>
-      <c r="K17">
-        <v>98.660408244481076</v>
-      </c>
-      <c r="L17">
-        <v>36.343252669459389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>36.184616359094989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>98.476168321544435</v>
+        <v>94.150199502741089</v>
       </c>
       <c r="D18">
-        <v>49.933429213266074</v>
+        <v>33.628919330491698</v>
       </c>
       <c r="E18">
-        <v>107.84395788383451</v>
+        <v>77.272609501091139</v>
       </c>
       <c r="F18">
-        <v>38.367118491593232</v>
+        <v>29.71177060619306</v>
       </c>
       <c r="G18">
-        <v>131.63380800542811</v>
+        <v>106.95593609344461</v>
       </c>
       <c r="H18">
-        <v>41.285937868928492</v>
+        <v>40.91986083984375</v>
       </c>
       <c r="I18">
-        <v>95.567624739958347</v>
+        <v>111.622574054434</v>
       </c>
       <c r="J18">
-        <v>47.594020843505859</v>
-      </c>
-      <c r="K18">
-        <v>103.36306074157071</v>
-      </c>
-      <c r="L18">
-        <v>48.391458354008819</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>38.385611199273598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>116.83627039365859</v>
+        <v>92.441246416830239</v>
       </c>
       <c r="D19">
-        <v>49.549925662601197</v>
+        <v>37.607881641915547</v>
       </c>
       <c r="E19">
-        <v>99.935300110712348</v>
+        <v>81.485297373908494</v>
       </c>
       <c r="F19">
-        <v>35.351075803979043</v>
+        <v>32.054871244309467</v>
       </c>
       <c r="G19">
-        <v>101.8679213674764</v>
+        <v>77.981734264545892</v>
       </c>
       <c r="H19">
-        <v>39.453228361305221</v>
+        <v>40.698490142822273</v>
       </c>
       <c r="I19">
-        <v>112.3049698366016</v>
+        <v>104.7540026111453</v>
       </c>
       <c r="J19">
-        <v>47.271236419677727</v>
-      </c>
-      <c r="K19">
-        <v>101.94426397292089</v>
-      </c>
-      <c r="L19">
-        <v>37.144851790947143</v>
+        <v>40.828484889755323</v>
       </c>
     </row>
   </sheetData>
@@ -1273,24 +1135,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1316,263 +1171,213 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>150.45391034955429</v>
+        <v>159.6590457731547</v>
       </c>
       <c r="C2">
-        <v>74.301324694551013</v>
+        <v>63.995845614828283</v>
       </c>
       <c r="D2">
-        <v>125.12957591080981</v>
+        <v>114.3221434982581</v>
       </c>
       <c r="E2">
-        <v>60.179192091626597</v>
+        <v>41.883095176948999</v>
       </c>
       <c r="F2">
-        <v>120.0007242837723</v>
+        <v>139.59707643786811</v>
       </c>
       <c r="G2">
-        <v>53.308151835986997</v>
+        <v>59.316543579101563</v>
       </c>
       <c r="H2">
-        <v>135.51709417080929</v>
+        <v>132.99912030699059</v>
       </c>
       <c r="I2">
-        <v>64.116775512695313</v>
-      </c>
-      <c r="J2">
-        <v>119.2715725508175</v>
-      </c>
-      <c r="K2">
-        <v>55.164433457791112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>49.899262596844864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>161.0863125160304</v>
+        <v>132.75736693904881</v>
       </c>
       <c r="C3">
-        <v>68.83512167789641</v>
+        <v>49.062767890893703</v>
       </c>
       <c r="D3">
-        <v>142.3119980262598</v>
+        <v>131.43022643764721</v>
       </c>
       <c r="E3">
-        <v>53.450613306523763</v>
+        <v>48.599119865211442</v>
       </c>
       <c r="F3">
-        <v>143.19436681947079</v>
+        <v>157.58437719996229</v>
       </c>
       <c r="G3">
-        <v>56.302241861128927</v>
+        <v>62.076381683349609</v>
       </c>
       <c r="H3">
-        <v>151.47910721243039</v>
+        <v>132.68704028391301</v>
       </c>
       <c r="I3">
-        <v>65.60546875</v>
-      </c>
-      <c r="J3">
-        <v>144.91929589217031</v>
-      </c>
-      <c r="K3">
-        <v>59.740220234868339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>51.743327185682134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>113.9740140245825</v>
+        <v>103.1112380508374</v>
       </c>
       <c r="C4">
-        <v>56.211167914884413</v>
+        <v>40.436606006247267</v>
       </c>
       <c r="D4">
-        <v>111.9506809670338</v>
+        <v>112.9081985711679</v>
       </c>
       <c r="E4">
-        <v>45.856411006096081</v>
+        <v>43.878668959174917</v>
       </c>
       <c r="F4">
-        <v>119.959462969318</v>
+        <v>123.6443796425357</v>
       </c>
       <c r="G4">
-        <v>47.753119397458512</v>
+        <v>55.860321044921882</v>
       </c>
       <c r="H4">
-        <v>133.96240435752861</v>
+        <v>102.53201667274671</v>
       </c>
       <c r="I4">
-        <v>58.085147857666023</v>
-      </c>
-      <c r="J4">
-        <v>114.9990531576324</v>
-      </c>
-      <c r="K4">
-        <v>46.486844287855028</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41.403658231815932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>116.62903153454791</v>
+        <v>94.018387051644382</v>
       </c>
       <c r="C5">
-        <v>60.002781108502177</v>
+        <v>40.954503469366287</v>
       </c>
       <c r="D5">
-        <v>108.43570462712189</v>
+        <v>95.452412594617286</v>
       </c>
       <c r="E5">
-        <v>57.217741586926628</v>
+        <v>44.290967322900777</v>
       </c>
       <c r="F5">
-        <v>114.8635884212888</v>
+        <v>95.905633958594947</v>
       </c>
       <c r="G5">
-        <v>48.150853894715901</v>
+        <v>49.185890197753913</v>
       </c>
       <c r="H5">
-        <v>102.8668501859929</v>
+        <v>101.42660099698951</v>
       </c>
       <c r="I5">
-        <v>53.980297088623047</v>
-      </c>
-      <c r="J5">
-        <v>118.89449025212311</v>
-      </c>
-      <c r="K5">
-        <v>54.573067783922809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38.618268001534886</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>132.4926232490449</v>
+        <v>89.41820937033863</v>
       </c>
       <c r="C6">
-        <v>56.930531196265342</v>
+        <v>36.633790382977963</v>
       </c>
       <c r="D6">
-        <v>99.565081067831798</v>
+        <v>83.024235817335352</v>
       </c>
       <c r="E6">
-        <v>44.582915468465451</v>
+        <v>34.616232763187313</v>
       </c>
       <c r="F6">
-        <v>91.71217469666631</v>
+        <v>92.748757572541095</v>
       </c>
       <c r="G6">
-        <v>40.858238855786482</v>
+        <v>46.640262603759773</v>
       </c>
       <c r="H6">
-        <v>115.373006652607</v>
+        <v>102.8756997859816</v>
       </c>
       <c r="I6">
-        <v>51.589763641357422</v>
-      </c>
-      <c r="J6">
-        <v>93.965937197098953</v>
-      </c>
-      <c r="K6">
-        <v>43.923017104065792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>41.064302731306967</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>105.90419507773569</v>
+        <v>95.528339303642881</v>
       </c>
       <c r="C7">
-        <v>49.040878790275492</v>
+        <v>35.342114792996718</v>
       </c>
       <c r="D7">
-        <v>101.67658524768041</v>
+        <v>78.938803949642846</v>
       </c>
       <c r="E7">
-        <v>36.801794696218167</v>
+        <v>30.942792481895982</v>
       </c>
       <c r="F7">
-        <v>116.0716696812252</v>
+        <v>98.378891282632367</v>
       </c>
       <c r="G7">
-        <v>40.567482169700398</v>
+        <v>41.171878814697273</v>
       </c>
       <c r="H7">
-        <v>102.79936276249479</v>
+        <v>109.99857580946809</v>
       </c>
       <c r="I7">
-        <v>47.184627532958977</v>
-      </c>
-      <c r="J7">
-        <v>101.27002327439349</v>
-      </c>
-      <c r="K7">
-        <v>40.617987030491363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>38.360061999366621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f>AVERAGE(B2:B7)</f>
-        <v>130.09001445858263</v>
+        <v>112.41543108144447</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:K8" si="0">AVERAGE(C2:C7)</f>
-        <v>60.886967563729144</v>
+        <f t="shared" ref="C8:I8" si="0">AVERAGE(C2:C7)</f>
+        <v>44.4042713595517</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>114.84493764112294</v>
+        <v>102.67933681144478</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>49.681444692642778</v>
+        <v>40.701812761553242</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>117.63366447862357</v>
+        <v>117.97651934902241</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>47.823348002462872</v>
+        <v>52.375212987264</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>123.66630422364382</v>
+        <v>113.75317564268158</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>56.760346730550133</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" si="0"/>
-        <v>115.55339538737262</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="0"/>
-        <v>50.084261649832399</v>
+        <v>43.514813457758571</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/KPIs.xlsx
+++ b/data/output/KPIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Vie Professionnelle\CDI Dec 2024 - Data Scientist\Entretiens\Quod_Financial\Quod_THA\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23458B0B-34F1-4EF6-BA9E-FDA2AA80E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECC3CA6-622C-47A1-A481-0909F6094BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yearly" sheetId="1" r:id="rId1"/>
@@ -136,10 +136,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,9 +544,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -581,7 +592,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>2018</v>
       </c>
       <c r="B2" s="1">
@@ -613,7 +624,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>5</v>
       </c>
@@ -643,7 +654,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>6</v>
       </c>
@@ -673,7 +684,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>7</v>
       </c>
@@ -703,7 +714,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1">
         <v>8</v>
       </c>
@@ -733,7 +744,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1">
         <v>9</v>
       </c>
@@ -763,7 +774,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1">
         <v>10</v>
       </c>
@@ -793,7 +804,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1">
         <v>11</v>
       </c>
@@ -823,7 +834,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1">
         <v>12</v>
       </c>
@@ -853,7 +864,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>2019</v>
       </c>
       <c r="B11" s="1">
@@ -885,7 +896,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
@@ -915,7 +926,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
@@ -945,7 +956,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1">
         <v>4</v>
       </c>
@@ -975,7 +986,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1">
         <v>5</v>
       </c>
@@ -1005,7 +1016,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1">
         <v>6</v>
       </c>
@@ -1035,7 +1046,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1">
         <v>7</v>
       </c>
@@ -1065,7 +1076,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1">
         <v>8</v>
       </c>
@@ -1095,7 +1106,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1">
         <v>9</v>
       </c>
@@ -1137,9 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1347,35 +1356,35 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>AVERAGE(B2:B7)</f>
         <v>112.41543108144447</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" ref="C8:I8" si="0">AVERAGE(C2:C7)</f>
         <v>44.4042713595517</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>102.67933681144478</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>40.701812761553242</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>117.97651934902241</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>52.375212987264</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>113.75317564268158</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f t="shared" si="0"/>
         <v>43.514813457758571</v>
       </c>

--- a/data/output/KPIs.xlsx
+++ b/data/output/KPIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Vie Professionnelle\CDI Dec 2024 - Data Scientist\Entretiens\Quod_Financial\Quod_THA\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECC3CA6-622C-47A1-A481-0909F6094BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26415A1-223F-4109-9F89-3B8E5111E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yearly" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>LinearRegression_RMSE</t>
+    <t>ElasticNet_RMSE</t>
   </si>
   <si>
-    <t>LinearRegression_MAE</t>
+    <t>ElasticNet_MAE</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor_RMSE</t>
+  </si>
+  <si>
+    <t>KNeighborsRegressor_MAE</t>
   </si>
   <si>
     <t>RandomForest_RMSE</t>
@@ -136,10 +142,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,13 +448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,63 +482,81 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>134.24998310284499</v>
+        <v>123.413093754389</v>
       </c>
       <c r="C2">
-        <v>51.329629572858387</v>
+        <v>54.12494037588732</v>
       </c>
       <c r="D2">
-        <v>119.8997629346171</v>
+        <v>156.34646991692171</v>
       </c>
       <c r="E2">
-        <v>44.78514538374494</v>
+        <v>62.614678672751943</v>
       </c>
       <c r="F2">
-        <v>141.12586497742009</v>
+        <v>153.76572891906389</v>
       </c>
       <c r="G2">
-        <v>59.119560241699219</v>
+        <v>56.699674142665728</v>
       </c>
       <c r="H2">
-        <v>123.81113520674769</v>
+        <v>181.52201571021629</v>
       </c>
       <c r="I2">
-        <v>47.757499277212077</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>69.524742126464844</v>
+      </c>
+      <c r="J2">
+        <v>152.25994989782899</v>
+      </c>
+      <c r="K2">
+        <v>62.202436458146749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>92.955342821163683</v>
+        <v>95.188163012379277</v>
       </c>
       <c r="C3">
-        <v>37.784241109037481</v>
+        <v>40.515799319779902</v>
       </c>
       <c r="D3">
-        <v>86.510504220475127</v>
+        <v>104.1135623768369</v>
       </c>
       <c r="E3">
-        <v>36.954690738843652</v>
+        <v>43.506780565936999</v>
       </c>
       <c r="F3">
-        <v>95.615456018823124</v>
+        <v>106.3701465548761</v>
       </c>
       <c r="G3">
-        <v>45.886444091796882</v>
+        <v>41.811645811023517</v>
       </c>
       <c r="H3">
-        <v>104.5887233729202</v>
+        <v>131.0246801059823</v>
       </c>
       <c r="I3">
-        <v>39.368198078916627</v>
+        <v>49.861927032470703</v>
+      </c>
+      <c r="J3">
+        <v>108.8462875374636</v>
+      </c>
+      <c r="K3">
+        <v>47.090932197646083</v>
       </c>
     </row>
   </sheetData>
@@ -542,29 +566,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -590,549 +603,663 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>2018</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>168.834122713863</v>
+        <v>137.6218804645074</v>
       </c>
       <c r="D2">
-        <v>69.661397316866413</v>
+        <v>63.52450019125299</v>
       </c>
       <c r="E2">
-        <v>116.77907989198469</v>
+        <v>170.94134190231651</v>
       </c>
       <c r="F2">
-        <v>43.398557446757181</v>
+        <v>70.914093959731545</v>
       </c>
       <c r="G2">
-        <v>141.07046111784001</v>
+        <v>150.279827185486</v>
       </c>
       <c r="H2">
-        <v>61.638721466064453</v>
+        <v>55.13564612820867</v>
       </c>
       <c r="I2">
-        <v>134.7116021775355</v>
+        <v>167.7027457661323</v>
       </c>
       <c r="J2">
-        <v>52.780796301467753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+        <v>68.2786865234375</v>
+      </c>
+      <c r="K2">
+        <v>172.3474063111845</v>
+      </c>
+      <c r="L2">
+        <v>68.768540563509873</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>172.7200812883253</v>
+        <v>129.7839496182128</v>
       </c>
       <c r="D3">
-        <v>68.44250546342461</v>
+        <v>61.914182609146017</v>
       </c>
       <c r="E3">
-        <v>125.0942049314217</v>
+        <v>184.25347528134299</v>
       </c>
       <c r="F3">
-        <v>43.888126072899688</v>
+        <v>69.013891951488418</v>
       </c>
       <c r="G3">
-        <v>149.10496643514259</v>
+        <v>167.15241443347921</v>
       </c>
       <c r="H3">
-        <v>60.664497375488281</v>
+        <v>55.723108667346608</v>
       </c>
       <c r="I3">
-        <v>157.97820600295529</v>
+        <v>186.472727563577</v>
       </c>
       <c r="J3">
-        <v>55.267682706637601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+        <v>68.7060546875</v>
+      </c>
+      <c r="K3">
+        <v>145.02982632650821</v>
+      </c>
+      <c r="L3">
+        <v>65.062338277397288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>134.957689741526</v>
+        <v>110.9189732437885</v>
       </c>
       <c r="D4">
-        <v>53.993013818531601</v>
+        <v>51.125143278995047</v>
       </c>
       <c r="E4">
-        <v>99.773798678142498</v>
+        <v>167.83698843468639</v>
       </c>
       <c r="F4">
-        <v>38.399928344684547</v>
+        <v>56.336933045356368</v>
       </c>
       <c r="G4">
-        <v>127.9093344973794</v>
+        <v>141.61603603803059</v>
       </c>
       <c r="H4">
-        <v>55.686546325683587</v>
+        <v>49.735155614184293</v>
       </c>
       <c r="I4">
-        <v>100.1956308571839</v>
+        <v>165.2347879722972</v>
       </c>
       <c r="J4">
-        <v>41.735675240122752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+        <v>64.240745544433594</v>
+      </c>
+      <c r="K4">
+        <v>162.73433068456981</v>
+      </c>
+      <c r="L4">
+        <v>60.37231919208886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>116.65306351209369</v>
+        <v>127.03299259441449</v>
       </c>
       <c r="D5">
-        <v>43.986049493833647</v>
+        <v>53.984180530411393</v>
       </c>
       <c r="E5">
-        <v>121.32889579958869</v>
+        <v>139.93662706920449</v>
       </c>
       <c r="F5">
-        <v>45.457709114072507</v>
+        <v>58.591910112359542</v>
       </c>
       <c r="G5">
-        <v>150.44976191199169</v>
+        <v>154.72934175996849</v>
       </c>
       <c r="H5">
-        <v>57.133026123046882</v>
+        <v>57.608095105786113</v>
       </c>
       <c r="I5">
-        <v>132.5672017287163</v>
+        <v>190.20716502014321</v>
       </c>
       <c r="J5">
-        <v>46.812553174544178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+        <v>68.52130126953125</v>
+      </c>
+      <c r="K5">
+        <v>158.74967856643909</v>
+      </c>
+      <c r="L5">
+        <v>61.056628865001016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>140.50011304110069</v>
+        <v>144.52014913303771</v>
       </c>
       <c r="D6">
-        <v>48.349312956382761</v>
+        <v>57.451601209250498</v>
       </c>
       <c r="E6">
-        <v>142.73093143918339</v>
+        <v>175.54733570200389</v>
       </c>
       <c r="F6">
-        <v>49.277946043579639</v>
+        <v>69.225900900900896</v>
       </c>
       <c r="G6">
-        <v>164.62004666997581</v>
+        <v>181.8547741630272</v>
       </c>
       <c r="H6">
-        <v>61.796527862548828</v>
+        <v>63.317818799106917</v>
       </c>
       <c r="I6">
-        <v>133.99062664380031</v>
+        <v>207.10459314076061</v>
       </c>
       <c r="J6">
-        <v>50.39104607459663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+        <v>75.062149047851563</v>
+      </c>
+      <c r="K6">
+        <v>170.69890259426421</v>
+      </c>
+      <c r="L6">
+        <v>64.367720818866928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>140.14361617327771</v>
+        <v>137.77240519581039</v>
       </c>
       <c r="D7">
-        <v>55.061972332419209</v>
+        <v>61.018323485029178</v>
       </c>
       <c r="E7">
-        <v>129.49480694464481</v>
+        <v>179.98956395525721</v>
       </c>
       <c r="F7">
-        <v>51.169948708424933</v>
+        <v>77.919409761634512</v>
       </c>
       <c r="G7">
-        <v>157.4979228533665</v>
+        <v>174.83395028049671</v>
       </c>
       <c r="H7">
-        <v>67.495330810546875</v>
+        <v>70.516327120211244</v>
       </c>
       <c r="I7">
-        <v>131.4712048623677</v>
+        <v>197.91236618134809</v>
       </c>
       <c r="J7">
-        <v>58.241823245358603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
+        <v>82.092430114746094</v>
+      </c>
+      <c r="K7">
+        <v>156.4166980427257</v>
+      </c>
+      <c r="L7">
+        <v>71.582977264693966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>110.2250614610814</v>
+        <v>118.4607457613273</v>
       </c>
       <c r="D8">
-        <v>43.193534310631229</v>
+        <v>52.288482824516358</v>
       </c>
       <c r="E8">
-        <v>130.3794382881195</v>
+        <v>137.04227576384829</v>
       </c>
       <c r="F8">
-        <v>50.623957181705848</v>
+        <v>60.681188118811868</v>
       </c>
       <c r="G8">
-        <v>139.73201192371769</v>
+        <v>160.30079254343599</v>
       </c>
       <c r="H8">
-        <v>62.379341125488281</v>
+        <v>63.116831976433247</v>
       </c>
       <c r="I8">
-        <v>107.08099012351499</v>
+        <v>178.3785695157913</v>
       </c>
       <c r="J8">
-        <v>45.729107277281123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
+        <v>73.293159484863281</v>
+      </c>
+      <c r="K8">
+        <v>149.52625433081781</v>
+      </c>
+      <c r="L8">
+        <v>62.684276283543653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>111.33118248117449</v>
+        <v>108.80862048236639</v>
       </c>
       <c r="D9">
-        <v>40.977768063420328</v>
+        <v>46.542422141710183</v>
       </c>
       <c r="E9">
-        <v>113.2736931804295</v>
+        <v>120.4987570954093</v>
       </c>
       <c r="F9">
-        <v>45.128688484514292</v>
+        <v>54.695164835164839</v>
       </c>
       <c r="G9">
-        <v>117.94378874992741</v>
+        <v>134.5238189830952</v>
       </c>
       <c r="H9">
-        <v>56.653671264648438</v>
+        <v>53.935481048037772</v>
       </c>
       <c r="I9">
-        <v>115.11012190909599</v>
+        <v>175.09379183026451</v>
       </c>
       <c r="J9">
-        <v>43.375807566271519</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
+        <v>68.390129089355469</v>
+      </c>
+      <c r="K9">
+        <v>140.5389612955899</v>
+      </c>
+      <c r="L9">
+        <v>60.902386061242787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>85.378345473606927</v>
+        <v>86.26633412613802</v>
       </c>
       <c r="D10">
-        <v>37.063074005465722</v>
+        <v>39.687385344634798</v>
       </c>
       <c r="E10">
-        <v>91.155424961119806</v>
+        <v>113.15662222332971</v>
       </c>
       <c r="F10">
-        <v>35.699821332010863</v>
+        <v>46.849445676274939</v>
       </c>
       <c r="G10">
-        <v>111.0996658059218</v>
+        <v>106.06977676488189</v>
       </c>
       <c r="H10">
-        <v>48.376396179199219</v>
+        <v>41.796648586474099</v>
       </c>
       <c r="I10">
-        <v>82.218092483053184</v>
+        <v>161.56966860305189</v>
       </c>
       <c r="J10">
-        <v>34.971906106179603</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+        <v>57.618095397949219</v>
+      </c>
+      <c r="K10">
+        <v>103.3488351711116</v>
+      </c>
+      <c r="L10">
+        <v>45.360367525800427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>2019</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>109.0592885365683</v>
+        <v>102.4855871125732</v>
       </c>
       <c r="D11">
-        <v>48.661387918916297</v>
+        <v>51.284211648463632</v>
       </c>
       <c r="E11">
-        <v>113.3987582590314</v>
+        <v>112.8025036850955</v>
       </c>
       <c r="F11">
-        <v>51.345545862494923</v>
+        <v>46.556774916013431</v>
       </c>
       <c r="G11">
-        <v>113.8360895034501</v>
+        <v>116.2207904796747</v>
       </c>
       <c r="H11">
-        <v>54.424423217773438</v>
+        <v>53.451259646194003</v>
       </c>
       <c r="I11">
-        <v>126.75755036480091</v>
+        <v>117.05298946951331</v>
       </c>
       <c r="J11">
-        <v>44.94756896043328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
+        <v>54.535640716552727</v>
+      </c>
+      <c r="K11">
+        <v>126.7374147912295</v>
+      </c>
+      <c r="L11">
+        <v>54.811129496058882</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>89.251525029843421</v>
+        <v>96.684780898245222</v>
       </c>
       <c r="D12">
-        <v>36.26822283983504</v>
+        <v>42.061921884120032</v>
       </c>
       <c r="E12">
-        <v>86.990493777104874</v>
+        <v>95.716208077251906</v>
       </c>
       <c r="F12">
-        <v>41.813846756378247</v>
+        <v>40.667420814479641</v>
       </c>
       <c r="G12">
-        <v>85.923743217096288</v>
+        <v>115.97385725435051</v>
       </c>
       <c r="H12">
-        <v>45.846683502197273</v>
+        <v>47.81166579033453</v>
       </c>
       <c r="I12">
-        <v>82.316786656566237</v>
+        <v>134.06430651463501</v>
       </c>
       <c r="J12">
-        <v>32.478271305994603</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
+        <v>50.631053924560547</v>
+      </c>
+      <c r="K12">
+        <v>87.11268102224571</v>
+      </c>
+      <c r="L12">
+        <v>38.278801548975252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>80.803912988232725</v>
+        <v>90.489437599185038</v>
       </c>
       <c r="D13">
-        <v>37.6471478184137</v>
+        <v>41.650658617946178</v>
       </c>
       <c r="E13">
-        <v>82.192956014500226</v>
+        <v>96.422871082124956</v>
       </c>
       <c r="F13">
-        <v>39.422122973329358</v>
+        <v>43.220541760722341</v>
       </c>
       <c r="G13">
-        <v>84.289224340029079</v>
+        <v>105.5717784779453</v>
       </c>
       <c r="H13">
-        <v>47.094108581542969</v>
+        <v>44.607170488896287</v>
       </c>
       <c r="I13">
-        <v>88.336968350080681</v>
+        <v>133.9371791876699</v>
       </c>
       <c r="J13">
-        <v>38.230009606731457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+        <v>53.482357025146477</v>
+      </c>
+      <c r="K13">
+        <v>94.773126082211647</v>
+      </c>
+      <c r="L13">
+        <v>49.054423439845287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>94.850685792998291</v>
+        <v>106.2895050747025</v>
       </c>
       <c r="D14">
-        <v>38.804543595134056</v>
+        <v>41.278594567283513</v>
       </c>
       <c r="E14">
-        <v>86.012028010243696</v>
+        <v>107.2142890780231</v>
       </c>
       <c r="F14">
-        <v>35.297304491099979</v>
+        <v>45.953427895981093</v>
       </c>
       <c r="G14">
-        <v>93.980825213510968</v>
+        <v>121.2351119951166</v>
       </c>
       <c r="H14">
-        <v>46.84039306640625</v>
+        <v>42.25608714519138</v>
       </c>
       <c r="I14">
-        <v>96.036304968006675</v>
+        <v>152.39788461253329</v>
       </c>
       <c r="J14">
-        <v>40.152289010793709</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+        <v>52.560745239257813</v>
+      </c>
+      <c r="K14">
+        <v>112.46341259770369</v>
+      </c>
+      <c r="L14">
+        <v>49.708192570734063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>91.515761922096061</v>
+        <v>105.8909688208463</v>
       </c>
       <c r="D15">
-        <v>38.061631033994153</v>
+        <v>40.837428216200948</v>
       </c>
       <c r="E15">
-        <v>87.915741885633764</v>
+        <v>102.2750576187878</v>
       </c>
       <c r="F15">
-        <v>36.605174812485252</v>
+        <v>46.23871733966746</v>
       </c>
       <c r="G15">
-        <v>99.255037655526579</v>
+        <v>121.8140834180259</v>
       </c>
       <c r="H15">
-        <v>48.332683563232422</v>
+        <v>43.989445138439997</v>
       </c>
       <c r="I15">
-        <v>96.384726269917394</v>
+        <v>156.77533562194981</v>
       </c>
       <c r="J15">
-        <v>43.411567724744891</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+        <v>54.915924072265618</v>
+      </c>
+      <c r="K15">
+        <v>108.2807131921807</v>
+      </c>
+      <c r="L15">
+        <v>52.89981257357806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>81.03937348073049</v>
+        <v>86.824443745088303</v>
       </c>
       <c r="D16">
-        <v>32.92044369958068</v>
+        <v>36.020843791116043</v>
       </c>
       <c r="E16">
-        <v>74.26752119547686</v>
+        <v>100.5161768979592</v>
       </c>
       <c r="F16">
-        <v>31.881284361687111</v>
+        <v>42.855023923444982</v>
       </c>
       <c r="G16">
-        <v>84.20369473503672</v>
+        <v>102.0608073488889</v>
       </c>
       <c r="H16">
-        <v>44.70782470703125</v>
+        <v>37.917594651175911</v>
       </c>
       <c r="I16">
-        <v>115.39775183937959</v>
+        <v>132.90611406647179</v>
       </c>
       <c r="J16">
-        <v>39.621931426431431</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
+        <v>49.121112823486328</v>
+      </c>
+      <c r="K16">
+        <v>102.02483440406139</v>
+      </c>
+      <c r="L16">
+        <v>46.947641600140273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
       <c r="B17" s="1">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>99.382960785833035</v>
+        <v>87.721812816728431</v>
       </c>
       <c r="D17">
-        <v>34.97656126508889</v>
+        <v>36.369945136831568</v>
       </c>
       <c r="E17">
-        <v>78.22891397089812</v>
+        <v>111.83502637463729</v>
       </c>
       <c r="F17">
-        <v>31.129857627828809</v>
+        <v>41.481053952321197</v>
       </c>
       <c r="G17">
-        <v>105.63810939358009</v>
+        <v>88.414383271596236</v>
       </c>
       <c r="H17">
-        <v>41.821212768554688</v>
+        <v>35.317670557776033</v>
       </c>
       <c r="I17">
-        <v>112.8860738529026</v>
+        <v>119.3011633561257</v>
       </c>
       <c r="J17">
-        <v>36.184616359094989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+        <v>44.950077056884773</v>
+      </c>
+      <c r="K17">
+        <v>122.93957132142251</v>
+      </c>
+      <c r="L17">
+        <v>44.554098020467457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>94.150199502741089</v>
+        <v>85.873724549815336</v>
       </c>
       <c r="D18">
-        <v>33.628919330491698</v>
+        <v>34.770436389801262</v>
       </c>
       <c r="E18">
-        <v>77.272609501091139</v>
+        <v>106.0438544535114</v>
       </c>
       <c r="F18">
-        <v>29.71177060619306</v>
+        <v>40.273056994818653</v>
       </c>
       <c r="G18">
-        <v>106.95593609344461</v>
+        <v>78.818160681376483</v>
       </c>
       <c r="H18">
-        <v>40.91986083984375</v>
+        <v>32.936189546242161</v>
       </c>
       <c r="I18">
-        <v>111.622574054434</v>
+        <v>104.2407913348944</v>
       </c>
       <c r="J18">
-        <v>38.385611199273598</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+        <v>42.53155517578125</v>
+      </c>
+      <c r="K18">
+        <v>115.8328873629177</v>
+      </c>
+      <c r="L18">
+        <v>41.787919750108848</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>92.441246416830239</v>
+        <v>89.218136862628441</v>
       </c>
       <c r="D19">
-        <v>37.607881641915547</v>
+        <v>38.603927829257117</v>
       </c>
       <c r="E19">
-        <v>81.485297373908494</v>
+        <v>103.4928303019733</v>
       </c>
       <c r="F19">
-        <v>32.054871244309467</v>
+        <v>43.949184782608697</v>
       </c>
       <c r="G19">
-        <v>77.981734264545892</v>
+        <v>92.369231363800907</v>
       </c>
       <c r="H19">
-        <v>40.698490142822273</v>
+        <v>34.879913744961001</v>
       </c>
       <c r="I19">
-        <v>104.7540026111453</v>
+        <v>115.1440079992224</v>
       </c>
       <c r="J19">
-        <v>40.828484889755323</v>
+        <v>43.874446868896477</v>
+      </c>
+      <c r="K19">
+        <v>104.7320095417406</v>
+      </c>
+      <c r="L19">
+        <v>44.762709237607687</v>
       </c>
     </row>
   </sheetData>
@@ -1146,15 +1273,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1180,213 +1313,263 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>159.6590457731547</v>
+        <v>126.4478360951189</v>
       </c>
       <c r="C2">
-        <v>63.995845614828283</v>
+        <v>58.778492656334812</v>
       </c>
       <c r="D2">
-        <v>114.3221434982581</v>
+        <v>174.4605668556807</v>
       </c>
       <c r="E2">
-        <v>41.883095176948999</v>
+        <v>65.332159882654935</v>
       </c>
       <c r="F2">
-        <v>139.59707643786811</v>
+        <v>153.31881596234209</v>
       </c>
       <c r="G2">
-        <v>59.316543579101563</v>
+        <v>53.497206196786443</v>
       </c>
       <c r="H2">
-        <v>132.99912030699059</v>
+        <v>173.36746896945519</v>
       </c>
       <c r="I2">
-        <v>49.899262596844864</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>67.049674987792969</v>
+      </c>
+      <c r="J2">
+        <v>160.39386459487429</v>
+      </c>
+      <c r="K2">
+        <v>64.684775817107237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>132.75736693904881</v>
+        <v>136.6217497230507</v>
       </c>
       <c r="C3">
-        <v>49.062767890893703</v>
+        <v>57.472766279124222</v>
       </c>
       <c r="D3">
-        <v>131.43022643764721</v>
+        <v>166.07166108421049</v>
       </c>
       <c r="E3">
-        <v>48.599119865211442</v>
+        <v>68.546972546069966</v>
       </c>
       <c r="F3">
-        <v>157.58437719996229</v>
+        <v>170.83767858951771</v>
       </c>
       <c r="G3">
-        <v>62.076381683349609</v>
+        <v>63.791768307883657</v>
       </c>
       <c r="H3">
-        <v>132.68704028391301</v>
+        <v>198.52373126404811</v>
       </c>
       <c r="I3">
-        <v>51.743327185682134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>75.202163696289063</v>
+      </c>
+      <c r="J3">
+        <v>162.0880276380604</v>
+      </c>
+      <c r="K3">
+        <v>65.650070984279836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>103.1112380508374</v>
+        <v>105.4248916666663</v>
       </c>
       <c r="C4">
-        <v>40.436606006247267</v>
+        <v>46.189583468321302</v>
       </c>
       <c r="D4">
-        <v>112.9081985711679</v>
+        <v>123.9943669809193</v>
       </c>
       <c r="E4">
-        <v>43.878668959174917</v>
+        <v>54.094083057699372</v>
       </c>
       <c r="F4">
-        <v>123.6443796425357</v>
+        <v>135.52158055838871</v>
       </c>
       <c r="G4">
-        <v>55.860321044921882</v>
+        <v>52.978708212161642</v>
       </c>
       <c r="H4">
-        <v>102.53201667274671</v>
+        <v>171.8615392456235</v>
       </c>
       <c r="I4">
-        <v>41.403658231815932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>66.457199096679688</v>
+      </c>
+      <c r="J4">
+        <v>132.72280853025609</v>
+      </c>
+      <c r="K4">
+        <v>56.345545742647587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>94.018387051644382</v>
+        <v>96.693156663944364</v>
       </c>
       <c r="C5">
-        <v>40.954503469366287</v>
+        <v>45.017658086045977</v>
       </c>
       <c r="D5">
-        <v>95.452412594617286</v>
+        <v>101.98777503260941</v>
       </c>
       <c r="E5">
-        <v>44.290967322900777</v>
+        <v>43.491776192264368</v>
       </c>
       <c r="F5">
-        <v>95.905633958594947</v>
+        <v>112.7050421280606</v>
       </c>
       <c r="G5">
-        <v>49.185890197753913</v>
+        <v>48.636665593642157</v>
       </c>
       <c r="H5">
-        <v>101.42660099698951</v>
+        <v>128.56672331419981</v>
       </c>
       <c r="I5">
-        <v>38.618268001534886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52.889045715332031</v>
+      </c>
+      <c r="J5">
+        <v>104.37310217011451</v>
+      </c>
+      <c r="K5">
+        <v>47.407817640622461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>89.41820937033863</v>
+        <v>100.12093000663261</v>
       </c>
       <c r="C6">
-        <v>36.633790382977963</v>
+        <v>39.3899488792932</v>
       </c>
       <c r="D6">
-        <v>83.024235817335352</v>
+        <v>103.3869646962163</v>
       </c>
       <c r="E6">
-        <v>34.616232763187313</v>
+        <v>45.022345483359743</v>
       </c>
       <c r="F6">
-        <v>92.748757572541095</v>
+        <v>115.44159349402059</v>
       </c>
       <c r="G6">
-        <v>46.640262603759773</v>
+        <v>41.39733425506396</v>
       </c>
       <c r="H6">
-        <v>102.8756997859816</v>
+        <v>147.76556469412961</v>
       </c>
       <c r="I6">
-        <v>41.064302731306967</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>52.2071533203125</v>
+      </c>
+      <c r="J6">
+        <v>107.6959613572303</v>
+      </c>
+      <c r="K6">
+        <v>49.858558430868072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>95.528339303642881</v>
+        <v>87.591126275231716</v>
       </c>
       <c r="C7">
-        <v>35.342114792996718</v>
+        <v>36.547554902088763</v>
       </c>
       <c r="D7">
-        <v>78.938803949642846</v>
+        <v>107.2888773439976</v>
       </c>
       <c r="E7">
-        <v>30.942792481895982</v>
+        <v>41.864555314533632</v>
       </c>
       <c r="F7">
-        <v>98.378891282632367</v>
+        <v>86.648205006767242</v>
       </c>
       <c r="G7">
-        <v>41.171878814697273</v>
+        <v>34.380276911296193</v>
       </c>
       <c r="H7">
-        <v>109.99857580946809</v>
+        <v>113.11057401111979</v>
       </c>
       <c r="I7">
-        <v>38.360061999366621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
+        <v>43.796600341796882</v>
+      </c>
+      <c r="J7">
+        <v>114.98773567319211</v>
+      </c>
+      <c r="K7">
+        <v>43.694249096865882</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
         <f>AVERAGE(B2:B7)</f>
-        <v>112.41543108144447</v>
-      </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:I8" si="0">AVERAGE(C2:C7)</f>
-        <v>44.4042713595517</v>
-      </c>
-      <c r="D8" s="2">
+        <v>108.81661507177409</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:K8" si="0">AVERAGE(C2:C7)</f>
+        <v>47.232667378534707</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>102.67933681144478</v>
-      </c>
-      <c r="E8" s="2">
+        <v>129.53170199893896</v>
+      </c>
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>40.701812761553242</v>
-      </c>
-      <c r="F8" s="2">
+        <v>53.058648746096999</v>
+      </c>
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>117.97651934902241</v>
-      </c>
-      <c r="G8" s="2">
+        <v>129.07881928984949</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>52.375212987264</v>
-      </c>
-      <c r="H8" s="2">
+        <v>49.11365991280568</v>
+      </c>
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>113.75317564268158</v>
-      </c>
-      <c r="I8" s="2">
+        <v>155.53260024976268</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>43.514813457758571</v>
+        <v>59.600306193033852</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>130.37691666062128</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>54.606836285398508</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/KPIs.xlsx
+++ b/data/output/KPIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Vie Professionnelle\CDI Dec 2024 - Data Scientist\Entretiens\Quod_Financial\Quod_THA\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B90085-A7D4-48A5-AC7E-0D203AEBB630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C148CB6-87DD-4C04-9B9B-0F991E745E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>KNeighborsRegressor_MAE</t>
+  </si>
+  <si>
+    <t>RandomForest_RMSE</t>
+  </si>
+  <si>
+    <t>RandomForest_MAE</t>
+  </si>
+  <si>
+    <t>XGBoost_RMSE</t>
+  </si>
+  <si>
+    <t>XGBoost_MAE</t>
   </si>
   <si>
     <t>MLP_RMSE</t>
@@ -436,13 +448,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,50 +476,86 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>126.3887594168869</v>
+        <v>156.52367005301491</v>
       </c>
       <c r="C2">
-        <v>63.059986505675511</v>
+        <v>73.717485972118283</v>
       </c>
       <c r="D2">
-        <v>170.38103395395839</v>
+        <v>169.22741686281969</v>
       </c>
       <c r="E2">
-        <v>67.879684223510537</v>
+        <v>66.332297472989254</v>
       </c>
       <c r="F2">
+        <v>154.2681548989847</v>
+      </c>
+      <c r="G2">
+        <v>60.459443345487841</v>
+      </c>
+      <c r="H2">
+        <v>170.28000263352999</v>
+      </c>
+      <c r="I2">
+        <v>70.114959716796875</v>
+      </c>
+      <c r="J2">
         <v>192.5173633065867</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>68.642785585153916</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>99.325195644291185</v>
+        <v>116.0262056294069</v>
       </c>
       <c r="C3">
-        <v>50.105059765965322</v>
+        <v>56.547561306853858</v>
       </c>
       <c r="D3">
-        <v>110.7254787741274</v>
+        <v>104.3126050507923</v>
       </c>
       <c r="E3">
-        <v>46.437533368926857</v>
+        <v>43.999884721667193</v>
       </c>
       <c r="F3">
+        <v>105.43469278014121</v>
+      </c>
+      <c r="G3">
+        <v>42.205817227074348</v>
+      </c>
+      <c r="H3">
+        <v>133.71595653193381</v>
+      </c>
+      <c r="I3">
+        <v>51.258819580078118</v>
+      </c>
+      <c r="J3">
         <v>113.8506388186275</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>49.06485462590436</v>
       </c>
     </row>
@@ -518,18 +566,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -549,8 +597,20 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2018</v>
       </c>
@@ -558,217 +618,325 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>143.6365031322425</v>
+        <v>161.31912114858079</v>
       </c>
       <c r="D2">
-        <v>80.609929391206563</v>
+        <v>81.198257768093015</v>
       </c>
       <c r="E2">
-        <v>178.8953103928018</v>
+        <v>173.07922243972999</v>
       </c>
       <c r="F2">
-        <v>76.574944071588362</v>
+        <v>73.818677805130747</v>
       </c>
       <c r="G2">
+        <v>155.77814430408901</v>
+      </c>
+      <c r="H2">
+        <v>60.14513126199558</v>
+      </c>
+      <c r="I2">
+        <v>167.59280311591539</v>
+      </c>
+      <c r="J2">
+        <v>70.611503601074219</v>
+      </c>
+      <c r="K2">
         <v>210.47726174783801</v>
       </c>
-      <c r="H2">
+      <c r="L2">
         <v>75.755881758228412</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>131.67944511655469</v>
+        <v>173.40260948165991</v>
       </c>
       <c r="D3">
-        <v>79.591796505737605</v>
+        <v>81.130775549380473</v>
       </c>
       <c r="E3">
-        <v>190.43634905920379</v>
+        <v>192.63220646502569</v>
       </c>
       <c r="F3">
-        <v>74.110474090407934</v>
+        <v>72.717838092272203</v>
       </c>
       <c r="G3">
+        <v>167.93377838148609</v>
+      </c>
+      <c r="H3">
+        <v>59.223353209796507</v>
+      </c>
+      <c r="I3">
+        <v>184.2310348957254</v>
+      </c>
+      <c r="J3">
+        <v>70.175865173339844</v>
+      </c>
+      <c r="K3">
         <v>202.76353616319929</v>
       </c>
-      <c r="H3">
+      <c r="L3">
         <v>76.591916609087477</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>113.9231716567741</v>
+        <v>151.79717287317561</v>
       </c>
       <c r="D4">
-        <v>68.091400609841358</v>
+        <v>74.873450568256899</v>
       </c>
       <c r="E4">
-        <v>167.95847026030401</v>
+        <v>175.92118874030399</v>
       </c>
       <c r="F4">
-        <v>59.806263498920103</v>
+        <v>58.742235968255571</v>
       </c>
       <c r="G4">
+        <v>147.2995759864605</v>
+      </c>
+      <c r="H4">
+        <v>60.621986522873648</v>
+      </c>
+      <c r="I4">
+        <v>163.7527015521423</v>
+      </c>
+      <c r="J4">
+        <v>67.178024291992188</v>
+      </c>
+      <c r="K4">
         <v>193.35333568397871</v>
       </c>
-      <c r="H4">
+      <c r="L4">
         <v>73.607651269520119</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>133.0694862906164</v>
+        <v>172.77492253852159</v>
       </c>
       <c r="D5">
-        <v>61.374722777833881</v>
+        <v>72.992310651974137</v>
       </c>
       <c r="E5">
-        <v>175.80372124757309</v>
+        <v>173.58889766740469</v>
       </c>
       <c r="F5">
-        <v>65.088988764044942</v>
+        <v>63.636917191188083</v>
       </c>
       <c r="G5">
+        <v>168.76141235299201</v>
+      </c>
+      <c r="H5">
+        <v>64.288474351701197</v>
+      </c>
+      <c r="I5">
+        <v>180.80087674358771</v>
+      </c>
+      <c r="J5">
+        <v>69.194099426269531</v>
+      </c>
+      <c r="K5">
         <v>175.4396583451101</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>65.736536374296335</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>153.5146927489003</v>
+        <v>189.5309205992445</v>
       </c>
       <c r="D6">
-        <v>63.685951956026408</v>
+        <v>79.469600280957479</v>
       </c>
       <c r="E6">
-        <v>185.10002993268549</v>
+        <v>190.24385636764919</v>
       </c>
       <c r="F6">
-        <v>75.363063063063052</v>
+        <v>74.932448750178708</v>
       </c>
       <c r="G6">
+        <v>185.72530693134451</v>
+      </c>
+      <c r="H6">
+        <v>65.647336210019631</v>
+      </c>
+      <c r="I6">
+        <v>200.2761179908878</v>
+      </c>
+      <c r="J6">
+        <v>74.986923217773438</v>
+      </c>
+      <c r="K6">
         <v>152.0103710881688</v>
       </c>
-      <c r="H6">
+      <c r="L6">
         <v>63.621972119212998</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>137.25295738142961</v>
+        <v>183.8967028575</v>
       </c>
       <c r="D7">
-        <v>65.150147853291614</v>
+        <v>85.492144389705615</v>
       </c>
       <c r="E7">
-        <v>211.10637865801721</v>
+        <v>207.0844366902592</v>
       </c>
       <c r="F7">
-        <v>87.972304199772992</v>
+        <v>85.962453355320633</v>
       </c>
       <c r="G7">
+        <v>159.93225514626371</v>
+      </c>
+      <c r="H7">
+        <v>69.529376563813315</v>
+      </c>
+      <c r="I7">
+        <v>189.05132198360849</v>
+      </c>
+      <c r="J7">
+        <v>81.791023254394531</v>
+      </c>
+      <c r="K7">
         <v>207.92559743844629</v>
       </c>
-      <c r="H7">
+      <c r="L7">
         <v>78.32595362482428</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>121.2281019882986</v>
+        <v>137.5177804102361</v>
       </c>
       <c r="D8">
-        <v>56.270755886160913</v>
+        <v>69.908649976805137</v>
       </c>
       <c r="E8">
-        <v>152.74924453224151</v>
+        <v>150.51399656229381</v>
       </c>
       <c r="F8">
-        <v>65.942354235423551</v>
+        <v>64.244803427677283</v>
       </c>
       <c r="G8">
+        <v>180.0839217584433</v>
+      </c>
+      <c r="H8">
+        <v>65.876328546293536</v>
+      </c>
+      <c r="I8">
+        <v>171.30803076986791</v>
+      </c>
+      <c r="J8">
+        <v>75.253829956054688</v>
+      </c>
+      <c r="K8">
         <v>230.6171320669188</v>
       </c>
-      <c r="H8">
+      <c r="L8">
         <v>71.581368529085609</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>104.384819759642</v>
+        <v>115.2175207623537</v>
       </c>
       <c r="D9">
-        <v>48.603488400183771</v>
+        <v>64.027673667440283</v>
       </c>
       <c r="E9">
-        <v>136.17001703187651</v>
+        <v>124.8634506714973</v>
       </c>
       <c r="F9">
-        <v>58.256043956043953</v>
+        <v>56.614652190844168</v>
       </c>
       <c r="G9">
+        <v>111.41874859255201</v>
+      </c>
+      <c r="H9">
+        <v>54.66055904505739</v>
+      </c>
+      <c r="I9">
+        <v>133.43537029916391</v>
+      </c>
+      <c r="J9">
+        <v>66.439125061035156</v>
+      </c>
+      <c r="K9">
         <v>217.38895750406431</v>
       </c>
-      <c r="H9">
+      <c r="L9">
         <v>65.700945225393667</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>86.536574275131485</v>
+        <v>101.0675219850619</v>
       </c>
       <c r="D10">
-        <v>44.308688378818843</v>
+        <v>54.828271705575872</v>
       </c>
       <c r="E10">
-        <v>117.43681076767029</v>
+        <v>113.1747613538537</v>
       </c>
       <c r="F10">
-        <v>48.707317073170742</v>
+        <v>47.210638573903609</v>
       </c>
       <c r="G10">
+        <v>83.454196096654655</v>
+      </c>
+      <c r="H10">
+        <v>44.494201898409443</v>
+      </c>
+      <c r="I10">
+        <v>130.07922015304749</v>
+      </c>
+      <c r="J10">
+        <v>55.814357757568359</v>
+      </c>
+      <c r="K10">
         <v>113.431670147239</v>
       </c>
-      <c r="H10">
+      <c r="L10">
         <v>46.861899224463848</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2019</v>
       </c>
@@ -776,213 +944,321 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>108.746469626652</v>
+        <v>94.907148429272709</v>
       </c>
       <c r="D11">
-        <v>65.794100161914997</v>
+        <v>57.177754232343872</v>
       </c>
       <c r="E11">
-        <v>108.3024420194135</v>
+        <v>93.554754629353909</v>
       </c>
       <c r="F11">
-        <v>50.133034714445692</v>
+        <v>45.841109919985271</v>
       </c>
       <c r="G11">
+        <v>111.1594989781828</v>
+      </c>
+      <c r="H11">
+        <v>53.364736880175691</v>
+      </c>
+      <c r="I11">
+        <v>120.8340642937661</v>
+      </c>
+      <c r="J11">
+        <v>56.510051727294922</v>
+      </c>
+      <c r="K11">
         <v>149.29746776051951</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>64.499885382577432</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>100.5693114250857</v>
+        <v>115.1614386917969</v>
       </c>
       <c r="D12">
-        <v>52.485951934605779</v>
+        <v>56.906788745001442</v>
       </c>
       <c r="E12">
-        <v>109.3020239677149</v>
+        <v>106.1042845181113</v>
       </c>
       <c r="F12">
-        <v>47.008823529411771</v>
+        <v>45.444933317158522</v>
       </c>
       <c r="G12">
+        <v>115.7395708278442</v>
+      </c>
+      <c r="H12">
+        <v>42.147438282183991</v>
+      </c>
+      <c r="I12">
+        <v>140.84209631267919</v>
+      </c>
+      <c r="J12">
+        <v>52.069477081298828</v>
+      </c>
+      <c r="K12">
         <v>100.6285405313758</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>44.452975019540311</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>96.47427434760381</v>
+        <v>115.02086386918</v>
       </c>
       <c r="D13">
-        <v>55.102173732385658</v>
+        <v>60.829947166389509</v>
       </c>
       <c r="E13">
-        <v>98.974983272389366</v>
+        <v>100.5091048137546</v>
       </c>
       <c r="F13">
-        <v>47.497968397291203</v>
+        <v>47.606849188495872</v>
       </c>
       <c r="G13">
+        <v>113.6376969496651</v>
+      </c>
+      <c r="H13">
+        <v>45.612635939444857</v>
+      </c>
+      <c r="I13">
+        <v>141.48027413300409</v>
+      </c>
+      <c r="J13">
+        <v>55.351535797119141</v>
+      </c>
+      <c r="K13">
         <v>102.6804891141668</v>
       </c>
-      <c r="H13">
+      <c r="L13">
         <v>51.605298774603042</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>110.7031370243017</v>
+        <v>137.3372865546844</v>
       </c>
       <c r="D14">
-        <v>52.054519666092453</v>
+        <v>60.338809718930086</v>
       </c>
       <c r="E14">
-        <v>116.7965607188186</v>
+        <v>114.15603530097739</v>
       </c>
       <c r="F14">
-        <v>50.169739952718693</v>
+        <v>48.378831264701162</v>
       </c>
       <c r="G14">
+        <v>112.61695531024959</v>
+      </c>
+      <c r="H14">
+        <v>44.195155461488717</v>
+      </c>
+      <c r="I14">
+        <v>148.1067565242214</v>
+      </c>
+      <c r="J14">
+        <v>53.455661773681641</v>
+      </c>
+      <c r="K14">
         <v>119.5119213278615</v>
       </c>
-      <c r="H14">
+      <c r="L14">
         <v>50.005086336518573</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>106.82978485260961</v>
+        <v>141.8838933305355</v>
       </c>
       <c r="D15">
-        <v>50.773636634015467</v>
+        <v>61.609280922315158</v>
       </c>
       <c r="E15">
-        <v>112.52556616333931</v>
+        <v>109.8864493395742</v>
       </c>
       <c r="F15">
-        <v>48.245130641330171</v>
+        <v>46.223918425947581</v>
       </c>
       <c r="G15">
+        <v>110.8690343362119</v>
+      </c>
+      <c r="H15">
+        <v>47.215045104498223</v>
+      </c>
+      <c r="I15">
+        <v>150.58781309629609</v>
+      </c>
+      <c r="J15">
+        <v>56.109603881835938</v>
+      </c>
+      <c r="K15">
         <v>111.15011968713451</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>48.974253423352387</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>90.566157284178772</v>
+        <v>125.6666502822947</v>
       </c>
       <c r="D16">
-        <v>43.806000740015797</v>
+        <v>58.131176009203116</v>
       </c>
       <c r="E16">
-        <v>109.1074723670005</v>
+        <v>98.239770857989512</v>
       </c>
       <c r="F16">
-        <v>42.279665071770339</v>
+        <v>39.377563389493197</v>
       </c>
       <c r="G16">
+        <v>94.57080990833721</v>
+      </c>
+      <c r="H16">
+        <v>36.614226996045851</v>
+      </c>
+      <c r="I16">
+        <v>131.25161457340249</v>
+      </c>
+      <c r="J16">
+        <v>49.209938049316413</v>
+      </c>
+      <c r="K16">
         <v>117.43903948086199</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>45.675845799899761</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>94.57185748508337</v>
+        <v>108.7597354114627</v>
       </c>
       <c r="D17">
-        <v>42.75073140473225</v>
+        <v>51.13001185988653</v>
       </c>
       <c r="E17">
-        <v>118.7755609417985</v>
+        <v>108.2934599669307</v>
       </c>
       <c r="F17">
-        <v>43.067754077791719</v>
+        <v>39.253238933257563</v>
       </c>
       <c r="G17">
+        <v>97.270048143097071</v>
+      </c>
+      <c r="H17">
+        <v>36.633436320800691</v>
+      </c>
+      <c r="I17">
+        <v>127.63517267856651</v>
+      </c>
+      <c r="J17">
+        <v>47.023452758789063</v>
+      </c>
+      <c r="K17">
         <v>106.6236865570407</v>
       </c>
-      <c r="H17">
+      <c r="L17">
         <v>46.165949432608308</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>89.785336300380067</v>
+        <v>92.386558821582781</v>
       </c>
       <c r="D18">
-        <v>41.282499000339733</v>
+        <v>49.989998539072118</v>
       </c>
       <c r="E18">
-        <v>117.9514673620034</v>
+        <v>107.68719285629869</v>
       </c>
       <c r="F18">
-        <v>43.730829015544039</v>
+        <v>40.913916160009798</v>
       </c>
       <c r="G18">
+        <v>87.75323217210331</v>
+      </c>
+      <c r="H18">
+        <v>35.658334163274738</v>
+      </c>
+      <c r="I18">
+        <v>112.4236589938368</v>
+      </c>
+      <c r="J18">
+        <v>44.405014038085938</v>
+      </c>
+      <c r="K18">
         <v>101.1473642069431</v>
       </c>
-      <c r="H18">
+      <c r="L18">
         <v>43.139702245709337</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>90.12860504992193</v>
+        <v>99.201270967389391</v>
       </c>
       <c r="D19">
-        <v>43.561283186269819</v>
+        <v>50.993819720750572</v>
       </c>
       <c r="E19">
-        <v>104.2552719968177</v>
+        <v>99.203640869024753</v>
       </c>
       <c r="F19">
-        <v>44.84402173913044</v>
+        <v>41.737754727273177</v>
       </c>
       <c r="G19">
+        <v>97.002375249689777</v>
+      </c>
+      <c r="H19">
+        <v>35.871461628556787</v>
+      </c>
+      <c r="I19">
+        <v>121.43659932759149</v>
+      </c>
+      <c r="J19">
+        <v>45.015026092529297</v>
+      </c>
+      <c r="K19">
         <v>103.8566115276451</v>
       </c>
-      <c r="H19">
+      <c r="L19">
         <v>45.044871244173692</v>
       </c>
     </row>
@@ -997,17 +1273,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1027,167 +1303,267 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>130.14546836096861</v>
+        <v>162.3474127638753</v>
       </c>
       <c r="C2">
-        <v>76.020415574314541</v>
+        <v>79.028115546083271</v>
       </c>
       <c r="D2">
-        <v>179.257040056937</v>
+        <v>180.75274551576891</v>
       </c>
       <c r="E2">
-        <v>70.061166116611673</v>
+        <v>68.333072099040137</v>
       </c>
       <c r="F2">
+        <v>157.1719164991475</v>
+      </c>
+      <c r="G2">
+        <v>60.000472398126327</v>
+      </c>
+      <c r="H2">
+        <v>172.05298738688029</v>
+      </c>
+      <c r="I2">
+        <v>69.300712585449219</v>
+      </c>
+      <c r="J2">
         <v>202.21846988308579</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>75.304478082828808</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>141.5589821866055</v>
+        <v>182.18917552891381</v>
       </c>
       <c r="C3">
-        <v>63.397483590813671</v>
+        <v>79.297006670582135</v>
       </c>
       <c r="D3">
-        <v>191.18838133324391</v>
+        <v>190.73931862322581</v>
       </c>
       <c r="E3">
-        <v>76.101993230537801</v>
+        <v>74.806240013671896</v>
       </c>
       <c r="F3">
+        <v>171.83461106554091</v>
+      </c>
+      <c r="G3">
+        <v>66.478735419417461</v>
+      </c>
+      <c r="H3">
+        <v>190.20645649859</v>
+      </c>
+      <c r="I3">
+        <v>75.302383422851563</v>
+      </c>
+      <c r="J3">
         <v>179.84244497973921</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>69.201577193852984</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>105.0526637385142</v>
+        <v>118.9259715508949</v>
       </c>
       <c r="C4">
-        <v>49.741171798008857</v>
+        <v>62.942758891847113</v>
       </c>
       <c r="D4">
-        <v>136.26293480506919</v>
+        <v>130.49238166171921</v>
       </c>
       <c r="E4">
-        <v>57.658434399117972</v>
+        <v>56.046253510873903</v>
       </c>
       <c r="F4">
+        <v>131.508095682494</v>
+      </c>
+      <c r="G4">
+        <v>55.037288310161117</v>
+      </c>
+      <c r="H4">
+        <v>146.17611648709919</v>
+      </c>
+      <c r="I4">
+        <v>65.861778259277344</v>
+      </c>
+      <c r="J4">
         <v>194.51788255130759</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>61.420344450023322</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>102.0768754086094</v>
+        <v>108.7410069431822</v>
       </c>
       <c r="C5">
-        <v>57.819090830520203</v>
+        <v>58.302917374947597</v>
       </c>
       <c r="D5">
-        <v>105.6332180852652</v>
+        <v>100.1662077959782</v>
       </c>
       <c r="E5">
-        <v>48.219226436349977</v>
+        <v>46.297071194863811</v>
       </c>
       <c r="F5">
+        <v>113.5198514072021</v>
+      </c>
+      <c r="G5">
+        <v>47.061900457302173</v>
+      </c>
+      <c r="H5">
+        <v>134.68757975635691</v>
+      </c>
+      <c r="I5">
+        <v>54.650524139404297</v>
+      </c>
+      <c r="J5">
         <v>119.7656306811699</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>53.555059060538333</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>103.1100398260599</v>
+        <v>135.16057108106131</v>
       </c>
       <c r="C6">
-        <v>48.895143542792567</v>
+        <v>60.03142262381062</v>
       </c>
       <c r="D6">
-        <v>112.8688252422649</v>
+        <v>107.6697984954359</v>
       </c>
       <c r="E6">
-        <v>46.914342313787643</v>
+        <v>44.678555292472787</v>
       </c>
       <c r="F6">
+        <v>106.36658565368189</v>
+      </c>
+      <c r="G6">
+        <v>42.691625700119367</v>
+      </c>
+      <c r="H6">
+        <v>143.607946115457</v>
+      </c>
+      <c r="I6">
+        <v>52.934738159179688</v>
+      </c>
+      <c r="J6">
         <v>116.0904269924753</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>48.227270805021249</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>91.576439747332415</v>
+        <v>100.4536087094986</v>
       </c>
       <c r="C7">
-        <v>42.517798951378943</v>
+        <v>50.704707001720458</v>
       </c>
       <c r="D7">
-        <v>114.0536365810121</v>
+        <v>105.26809360014229</v>
       </c>
       <c r="E7">
-        <v>43.857006507592189</v>
+        <v>40.602760166857657</v>
       </c>
       <c r="F7">
+        <v>94.101608326830458</v>
+      </c>
+      <c r="G7">
+        <v>36.063548147654679</v>
+      </c>
+      <c r="H7">
+        <v>120.7258726542285</v>
+      </c>
+      <c r="I7">
+        <v>45.505172729492188</v>
+      </c>
+      <c r="J7">
         <v>103.93054581187501</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>44.7944195519255</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f>AVERAGE(B2:B7)</f>
-        <v>112.25341154468167</v>
+        <v>134.6362910962377</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:G8" si="0">AVERAGE(C2:C7)</f>
-        <v>56.398517381304792</v>
+        <f t="shared" ref="C8:K8" si="0">AVERAGE(C2:C7)</f>
+        <v>65.051154684831872</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>139.87733935063204</v>
+        <v>135.8480909487117</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>57.1353615006662</v>
+        <v>55.12732537963003</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
+        <v>129.08377810581615</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>51.222261738796846</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>151.24282648310199</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>60.592551549275719</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
         <v>152.7275668166088</v>
       </c>
-      <c r="G8" s="3">
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>58.750524857365036</v>
       </c>
